--- a/data/trans_orig/P1428-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1428-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F123508-115C-407E-9892-E6E8B40A63D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E474E71-FECA-42B0-89AC-9DDA47D7B004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{65D3B1C9-4276-4ED7-AFD2-A78A24D9320A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7F93ABDC-E804-420F-B4A4-788E4FA73A7C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="651">
   <si>
     <t>Población con diagnóstico de artritis en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,1972 +95,1903 @@
     <t>5,92%</t>
   </si>
   <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
   </si>
   <si>
     <t>13,2%</t>
   </si>
   <si>
-    <t>9,41%</t>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
   </si>
   <si>
     <t>17,81%</t>
   </si>
   <si>
-    <t>9,48%</t>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de artritis en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
   </si>
   <si>
     <t>7,05%</t>
   </si>
   <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
   </si>
   <si>
     <t>92,95%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de artritis en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
   </si>
   <si>
     <t>4,44%</t>
   </si>
   <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
   </si>
   <si>
     <t>95,56%</t>
   </si>
   <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de artritis en 2023 (Tasa respuesta: 99,66%)</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
   </si>
   <si>
     <t>82,18%</t>
   </si>
   <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
   </si>
   <si>
     <t>17,29%</t>
   </si>
   <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de artritis en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de artritis en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de artritis en 2023 (Tasa respuesta: 99,66%)</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
     <t>94,51%</t>
   </si>
   <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
   </si>
   <si>
     <t>82,08%</t>
   </si>
   <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
   </si>
   <si>
     <t>87,91%</t>
   </si>
   <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
   </si>
 </sst>
 </file>
@@ -2472,7 +2403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD26AC1-9710-4451-AB9E-783010F25247}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B8185D-18A3-4FB7-946F-585318C92C7C}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2868,13 +2799,13 @@
         <v>92520</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M9" s="7">
         <v>113</v>
@@ -2883,13 +2814,13 @@
         <v>115016</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2904,13 +2835,13 @@
         <v>470579</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>409</v>
@@ -2919,13 +2850,13 @@
         <v>411429</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>851</v>
@@ -2934,13 +2865,13 @@
         <v>882008</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2996,7 +2927,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3014,7 +2945,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3029,7 +2960,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3044,7 +2975,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3059,13 +2990,13 @@
         <v>11707</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="H13" s="7">
         <v>62</v>
@@ -3074,13 +3005,13 @@
         <v>61732</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>74</v>
@@ -3089,13 +3020,13 @@
         <v>73439</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3110,13 +3041,13 @@
         <v>307139</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>273</v>
@@ -3125,13 +3056,13 @@
         <v>273680</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M14" s="7">
         <v>571</v>
@@ -3140,13 +3071,13 @@
         <v>580819</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3202,7 +3133,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3220,7 +3151,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3235,7 +3166,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3250,7 +3181,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,13 +3196,13 @@
         <v>23692</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="H17" s="7">
         <v>66</v>
@@ -3280,13 +3211,13 @@
         <v>63976</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M17" s="7">
         <v>91</v>
@@ -3295,13 +3226,13 @@
         <v>87668</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,10 +3247,10 @@
         <v>334979</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>94</v>
@@ -3713,7 +3644,7 @@
         <v>133</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>134</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,13 +3659,13 @@
         <v>253047</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H26" s="7">
         <v>225</v>
@@ -3743,13 +3674,13 @@
         <v>230278</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M26" s="7">
         <v>472</v>
@@ -3758,13 +3689,13 @@
         <v>483325</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3820,7 +3751,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3838,7 +3769,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3853,7 +3784,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3868,7 +3799,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,13 +3814,13 @@
         <v>49965</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H29" s="7">
         <v>93</v>
@@ -3898,13 +3829,13 @@
         <v>93928</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M29" s="7">
         <v>143</v>
@@ -3913,13 +3844,13 @@
         <v>143892</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3934,13 +3865,13 @@
         <v>565062</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H30" s="7">
         <v>528</v>
@@ -3949,13 +3880,13 @@
         <v>544291</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M30" s="7">
         <v>1076</v>
@@ -3964,13 +3895,13 @@
         <v>1109354</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,7 +3957,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4044,7 +3975,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -4059,7 +3990,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -4074,7 +4005,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,13 +4020,13 @@
         <v>79473</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H33" s="7">
         <v>149</v>
@@ -4104,13 +4035,13 @@
         <v>159989</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M33" s="7">
         <v>233</v>
@@ -4119,13 +4050,13 @@
         <v>239462</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4140,13 +4071,13 @@
         <v>664322</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H34" s="7">
         <v>596</v>
@@ -4155,13 +4086,13 @@
         <v>623522</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="M34" s="7">
         <v>1248</v>
@@ -4325,13 +4256,13 @@
         <v>833111</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4346,13 +4277,13 @@
         <v>3039986</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H38" s="7">
         <v>2720</v>
@@ -4361,28 +4292,28 @@
         <v>2782645</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M38" s="7">
         <v>5689</v>
       </c>
       <c r="N38" s="7">
-        <v>5822629</v>
+        <v>5822630</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4424,7 +4355,7 @@
         <v>6511</v>
       </c>
       <c r="N39" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>36</v>
@@ -4438,7 +4369,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -4462,7 +4393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31A5CCF-4D4C-4590-B260-26FE829E1180}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C28690-21EC-4882-AECD-D16229298DD5}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4479,7 +4410,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4584,39 +4515,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,39 +4560,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4674,39 +4605,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4719,39 +4650,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4789,7 +4720,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4819,13 +4750,13 @@
         <v>14516</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H9" s="7">
         <v>45</v>
@@ -4834,13 +4765,13 @@
         <v>49185</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>211</v>
+        <v>133</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>213</v>
+        <v>132</v>
       </c>
       <c r="M9" s="7">
         <v>57</v>
@@ -4849,13 +4780,13 @@
         <v>63701</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,13 +4801,13 @@
         <v>491011</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H10" s="7">
         <v>435</v>
@@ -4885,13 +4816,13 @@
         <v>474580</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>220</v>
+        <v>141</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>221</v>
+        <v>140</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="M10" s="7">
         <v>895</v>
@@ -4900,13 +4831,13 @@
         <v>965591</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4962,7 +4893,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4980,7 +4911,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4995,7 +4926,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5010,7 +4941,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,13 +4956,13 @@
         <v>23250</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -5040,13 +4971,13 @@
         <v>50328</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="M13" s="7">
         <v>69</v>
@@ -5055,13 +4986,13 @@
         <v>73578</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,13 +5007,13 @@
         <v>300796</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="H14" s="7">
         <v>270</v>
@@ -5091,13 +5022,13 @@
         <v>290692</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="M14" s="7">
         <v>567</v>
@@ -5106,13 +5037,13 @@
         <v>591488</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5168,7 +5099,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5186,7 +5117,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5201,7 +5132,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5216,7 +5147,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5231,13 +5162,13 @@
         <v>29190</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H17" s="7">
         <v>63</v>
@@ -5246,13 +5177,13 @@
         <v>67877</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="M17" s="7">
         <v>89</v>
@@ -5264,10 +5195,10 @@
         <v>186</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5282,13 +5213,13 @@
         <v>639530</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="H18" s="7">
         <v>564</v>
@@ -5297,13 +5228,13 @@
         <v>608319</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M18" s="7">
         <v>1164</v>
@@ -5312,13 +5243,13 @@
         <v>1247849</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5392,7 +5323,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5407,7 +5338,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5437,13 +5368,13 @@
         <v>11079</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="H21" s="7">
         <v>32</v>
@@ -5452,13 +5383,13 @@
         <v>34421</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M21" s="7">
         <v>42</v>
@@ -5467,13 +5398,13 @@
         <v>45500</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5488,13 +5419,13 @@
         <v>201539</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="H22" s="7">
         <v>180</v>
@@ -5503,13 +5434,13 @@
         <v>185170</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="M22" s="7">
         <v>366</v>
@@ -5518,13 +5449,13 @@
         <v>386709</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5598,7 +5529,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5643,13 +5574,13 @@
         <v>31074</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="H25" s="7">
         <v>56</v>
@@ -5658,13 +5589,13 @@
         <v>56935</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="M25" s="7">
         <v>86</v>
@@ -5673,13 +5604,13 @@
         <v>88008</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5694,13 +5625,13 @@
         <v>242907</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="H26" s="7">
         <v>212</v>
@@ -5709,13 +5640,13 @@
         <v>221161</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="M26" s="7">
         <v>443</v>
@@ -5724,13 +5655,13 @@
         <v>464069</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5786,7 +5717,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5804,7 +5735,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5819,7 +5750,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -5834,7 +5765,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5849,13 +5780,13 @@
         <v>40432</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>169</v>
+        <v>295</v>
       </c>
       <c r="H29" s="7">
         <v>95</v>
@@ -5864,13 +5795,13 @@
         <v>107681</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>305</v>
+        <v>64</v>
       </c>
       <c r="M29" s="7">
         <v>131</v>
@@ -5879,13 +5810,13 @@
         <v>148114</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5900,13 +5831,13 @@
         <v>622356</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>178</v>
+        <v>302</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="H30" s="7">
         <v>541</v>
@@ -5915,13 +5846,13 @@
         <v>586172</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>312</v>
+        <v>73</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="M30" s="7">
         <v>1123</v>
@@ -5930,13 +5861,13 @@
         <v>1208527</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5992,7 +5923,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6010,7 +5941,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -6025,7 +5956,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -6040,7 +5971,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6055,13 +5986,13 @@
         <v>26763</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="H33" s="7">
         <v>67</v>
@@ -6070,13 +6001,13 @@
         <v>74250</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="M33" s="7">
         <v>91</v>
@@ -6085,13 +6016,13 @@
         <v>101013</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>325</v>
+        <v>63</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6106,13 +6037,13 @@
         <v>752335</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="H34" s="7">
         <v>689</v>
@@ -6121,13 +6052,13 @@
         <v>748328</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="M34" s="7">
         <v>1382</v>
@@ -6136,13 +6067,13 @@
         <v>1500663</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>334</v>
+        <v>71</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6261,13 +6192,13 @@
         <v>176304</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="H37" s="7">
         <v>405</v>
@@ -6276,13 +6207,13 @@
         <v>440677</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="M37" s="7">
         <v>565</v>
@@ -6291,13 +6222,13 @@
         <v>616981</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6312,13 +6243,13 @@
         <v>3250475</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H38" s="7">
         <v>2891</v>
@@ -6327,28 +6258,28 @@
         <v>3114421</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="M38" s="7">
         <v>5940</v>
       </c>
       <c r="N38" s="7">
-        <v>6364896</v>
+        <v>6364897</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6390,7 +6321,7 @@
         <v>6505</v>
       </c>
       <c r="N39" s="7">
-        <v>6981877</v>
+        <v>6981878</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>36</v>
@@ -6404,7 +6335,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -6428,7 +6359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF04402-6B51-42DC-8343-03A1E3004B9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5064992E-CBE1-46B0-B6A3-630F9FE771F7}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6445,7 +6376,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6573,7 +6504,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6588,7 +6519,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6603,13 +6534,13 @@
         <v>16537</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="H5" s="7">
         <v>23</v>
@@ -6618,13 +6549,13 @@
         <v>25327</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
@@ -6633,13 +6564,13 @@
         <v>41864</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6654,13 +6585,13 @@
         <v>277224</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="H6" s="7">
         <v>254</v>
@@ -6669,13 +6600,13 @@
         <v>263376</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="M6" s="7">
         <v>504</v>
@@ -6684,13 +6615,13 @@
         <v>540600</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6764,7 +6695,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6779,7 +6710,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6809,13 +6740,13 @@
         <v>15387</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="H9" s="7">
         <v>42</v>
@@ -6824,13 +6755,13 @@
         <v>48660</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="M9" s="7">
         <v>57</v>
@@ -6839,13 +6770,13 @@
         <v>64046</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6860,13 +6791,13 @@
         <v>487188</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H10" s="7">
         <v>442</v>
@@ -6875,13 +6806,13 @@
         <v>474424</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="M10" s="7">
         <v>902</v>
@@ -6890,13 +6821,13 @@
         <v>961613</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6952,7 +6883,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6970,7 +6901,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -6985,7 +6916,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -7000,7 +6931,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7015,13 +6946,13 @@
         <v>12304</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -7030,13 +6961,13 @@
         <v>26331</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>401</v>
+        <v>225</v>
       </c>
       <c r="M13" s="7">
         <v>39</v>
@@ -7045,13 +6976,13 @@
         <v>38635</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7066,13 +6997,13 @@
         <v>306261</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="H14" s="7">
         <v>307</v>
@@ -7081,13 +7012,13 @@
         <v>309978</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>409</v>
+        <v>235</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="M14" s="7">
         <v>628</v>
@@ -7096,13 +7027,13 @@
         <v>616239</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7158,7 +7089,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7176,7 +7107,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7191,7 +7122,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -7206,7 +7137,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7221,13 +7152,13 @@
         <v>15464</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
@@ -7236,13 +7167,13 @@
         <v>50024</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>129</v>
+        <v>406</v>
       </c>
       <c r="M17" s="7">
         <v>60</v>
@@ -7251,13 +7182,13 @@
         <v>65488</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>421</v>
+        <v>126</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7272,13 +7203,13 @@
         <v>354500</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="H18" s="7">
         <v>313</v>
@@ -7287,13 +7218,13 @@
         <v>337259</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>138</v>
+        <v>413</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="M18" s="7">
         <v>652</v>
@@ -7302,13 +7233,13 @@
         <v>691759</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>430</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7382,7 +7313,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7397,7 +7328,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7412,7 +7343,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7427,13 +7358,13 @@
         <v>6244</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="H21" s="7">
         <v>20</v>
@@ -7442,13 +7373,13 @@
         <v>21346</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>436</v>
+        <v>47</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>92</v>
+        <v>423</v>
       </c>
       <c r="M21" s="7">
         <v>26</v>
@@ -7457,13 +7388,13 @@
         <v>27590</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7478,13 +7409,13 @@
         <v>204977</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="H22" s="7">
         <v>203</v>
@@ -7493,13 +7424,13 @@
         <v>197241</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>444</v>
+        <v>56</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>99</v>
+        <v>430</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="M22" s="7">
         <v>409</v>
@@ -7508,13 +7439,13 @@
         <v>402218</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7588,7 +7519,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7603,7 +7534,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7633,13 +7564,13 @@
         <v>11361</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="H25" s="7">
         <v>32</v>
@@ -7648,13 +7579,13 @@
         <v>35682</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>454</v>
+        <v>21</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="M25" s="7">
         <v>44</v>
@@ -7663,13 +7594,13 @@
         <v>47043</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7684,13 +7615,13 @@
         <v>251762</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="H26" s="7">
         <v>231</v>
@@ -7699,13 +7630,13 @@
         <v>237433</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>462</v>
+        <v>32</v>
       </c>
       <c r="M26" s="7">
         <v>478</v>
@@ -7714,13 +7645,13 @@
         <v>489195</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7776,7 +7707,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7794,7 +7725,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7809,7 +7740,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -7824,7 +7755,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7839,13 +7770,13 @@
         <v>23957</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="H29" s="7">
         <v>48</v>
@@ -7854,13 +7785,13 @@
         <v>55354</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>250</v>
+        <v>454</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>468</v>
+        <v>147</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="M29" s="7">
         <v>72</v>
@@ -7869,13 +7800,13 @@
         <v>79311</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>470</v>
+        <v>147</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7890,13 +7821,13 @@
         <v>632601</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="H30" s="7">
         <v>598</v>
@@ -7905,13 +7836,13 @@
         <v>635940</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>259</v>
+        <v>461</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>477</v>
+        <v>157</v>
       </c>
       <c r="M30" s="7">
         <v>1154</v>
@@ -7920,13 +7851,13 @@
         <v>1268541</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>478</v>
+        <v>157</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7982,7 +7913,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -8000,7 +7931,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -8015,7 +7946,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -8030,7 +7961,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8045,13 +7976,13 @@
         <v>20691</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="H33" s="7">
         <v>57</v>
@@ -8060,13 +7991,13 @@
         <v>69359</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="M33" s="7">
         <v>75</v>
@@ -8075,13 +8006,13 @@
         <v>90050</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>106</v>
+        <v>472</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>488</v>
+        <v>209</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8096,13 +8027,13 @@
         <v>757892</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="H34" s="7">
         <v>698</v>
@@ -8111,13 +8042,13 @@
         <v>756808</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="M34" s="7">
         <v>1430</v>
@@ -8126,13 +8057,13 @@
         <v>1514700</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>496</v>
+        <v>216</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>116</v>
+        <v>480</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8251,13 +8182,13 @@
         <v>121945</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>433</v>
+        <v>482</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>498</v>
+        <v>390</v>
       </c>
       <c r="H37" s="7">
         <v>292</v>
@@ -8266,13 +8197,13 @@
         <v>332083</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="M37" s="7">
         <v>412</v>
@@ -8281,13 +8212,13 @@
         <v>454028</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>502</v>
+        <v>469</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>43</v>
+        <v>487</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8302,13 +8233,13 @@
         <v>3272405</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>505</v>
+        <v>399</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="H38" s="7">
         <v>3046</v>
@@ -8317,13 +8248,13 @@
         <v>3212459</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="M38" s="7">
         <v>6157</v>
@@ -8332,13 +8263,13 @@
         <v>6484864</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>509</v>
+        <v>478</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>51</v>
+        <v>493</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8394,7 +8325,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -8418,7 +8349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B04B819-ABEA-4B3A-90BD-04EBFCC64CF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60097DCE-5B96-40FE-956F-CFF9FDC7CEAC}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8435,7 +8366,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8548,7 +8479,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8578,7 +8509,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8593,13 +8524,13 @@
         <v>8343</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>514</v>
+        <v>466</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="H5" s="7">
         <v>48</v>
@@ -8608,13 +8539,13 @@
         <v>22390</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="M5" s="7">
         <v>60</v>
@@ -8623,13 +8554,13 @@
         <v>30733</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>520</v>
+        <v>436</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8644,13 +8575,13 @@
         <v>251955</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>524</v>
+        <v>475</v>
       </c>
       <c r="H6" s="7">
         <v>490</v>
@@ -8659,13 +8590,13 @@
         <v>249013</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>525</v>
+        <v>506</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="M6" s="7">
         <v>809</v>
@@ -8674,13 +8605,13 @@
         <v>500967</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>529</v>
+        <v>510</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>530</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8754,7 +8685,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -8769,7 +8700,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -8784,7 +8715,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8799,13 +8730,13 @@
         <v>21245</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>403</v>
+        <v>127</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>214</v>
+        <v>513</v>
       </c>
       <c r="H9" s="7">
         <v>76</v>
@@ -8814,13 +8745,13 @@
         <v>50742</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>154</v>
+        <v>515</v>
       </c>
       <c r="M9" s="7">
         <v>95</v>
@@ -8829,13 +8760,13 @@
         <v>71987</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>534</v>
+        <v>43</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>535</v>
+        <v>516</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>536</v>
+        <v>517</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8850,13 +8781,13 @@
         <v>496100</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>413</v>
+        <v>136</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>223</v>
+        <v>518</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
       <c r="H10" s="7">
         <v>629</v>
@@ -8865,13 +8796,13 @@
         <v>494763</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>520</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>538</v>
+        <v>521</v>
       </c>
       <c r="M10" s="7">
         <v>990</v>
@@ -8880,13 +8811,13 @@
         <v>990863</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>539</v>
+        <v>50</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>541</v>
+        <v>523</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8942,7 +8873,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -8960,7 +8891,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -8990,7 +8921,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9005,13 +8936,13 @@
         <v>20483</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
       <c r="H13" s="7">
         <v>104</v>
@@ -9020,13 +8951,13 @@
         <v>60150</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>290</v>
+        <v>529</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>547</v>
+        <v>530</v>
       </c>
       <c r="M13" s="7">
         <v>132</v>
@@ -9035,13 +8966,13 @@
         <v>80632</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>548</v>
+        <v>531</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>549</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9056,13 +8987,13 @@
         <v>301757</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>553</v>
+        <v>535</v>
       </c>
       <c r="H14" s="7">
         <v>431</v>
@@ -9071,13 +9002,13 @@
         <v>312537</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>300</v>
+        <v>538</v>
       </c>
       <c r="M14" s="7">
         <v>763</v>
@@ -9086,13 +9017,13 @@
         <v>614296</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>556</v>
+        <v>539</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>557</v>
+        <v>540</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>558</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9148,7 +9079,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -9166,7 +9097,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>559</v>
+        <v>541</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -9181,7 +9112,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -9196,7 +9127,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9211,13 +9142,13 @@
         <v>30792</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>560</v>
+        <v>334</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>561</v>
+        <v>542</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>363</v>
+        <v>130</v>
       </c>
       <c r="H17" s="7">
         <v>188</v>
@@ -9226,13 +9157,13 @@
         <v>94593</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="M17" s="7">
         <v>227</v>
@@ -9241,13 +9172,13 @@
         <v>125384</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9262,13 +9193,13 @@
         <v>291448</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>568</v>
+        <v>341</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>371</v>
+        <v>139</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="H18" s="7">
         <v>410</v>
@@ -9277,13 +9208,13 @@
         <v>333529</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>571</v>
+        <v>551</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>572</v>
+        <v>552</v>
       </c>
       <c r="M18" s="7">
         <v>663</v>
@@ -9292,13 +9223,13 @@
         <v>624978</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>574</v>
+        <v>554</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>575</v>
+        <v>555</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9372,7 +9303,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -9381,13 +9312,13 @@
         <v>28017</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>576</v>
+        <v>556</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -9396,13 +9327,13 @@
         <v>28017</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>579</v>
+        <v>559</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>581</v>
+        <v>561</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9417,13 +9348,13 @@
         <v>10768</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>582</v>
+        <v>562</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>583</v>
+        <v>563</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>584</v>
+        <v>564</v>
       </c>
       <c r="H21" s="7">
         <v>106</v>
@@ -9432,13 +9363,13 @@
         <v>42447</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>190</v>
+        <v>565</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>585</v>
+        <v>566</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>586</v>
+        <v>567</v>
       </c>
       <c r="M21" s="7">
         <v>125</v>
@@ -9447,13 +9378,13 @@
         <v>53215</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>587</v>
+        <v>568</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>588</v>
+        <v>569</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>589</v>
+        <v>570</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9468,13 +9399,13 @@
         <v>185980</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>591</v>
+        <v>572</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>592</v>
+        <v>573</v>
       </c>
       <c r="H22" s="7">
         <v>384</v>
@@ -9483,13 +9414,13 @@
         <v>188573</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>593</v>
+        <v>574</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>594</v>
+        <v>575</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>595</v>
+        <v>576</v>
       </c>
       <c r="M22" s="7">
         <v>644</v>
@@ -9498,13 +9429,13 @@
         <v>374552</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>121</v>
+        <v>577</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>597</v>
+        <v>579</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9578,7 +9509,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>598</v>
+        <v>557</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -9587,13 +9518,13 @@
         <v>718</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -9602,13 +9533,13 @@
         <v>718</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>600</v>
+        <v>435</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9623,13 +9554,13 @@
         <v>24326</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>601</v>
+        <v>581</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="H25" s="7">
         <v>112</v>
@@ -9638,13 +9569,13 @@
         <v>51616</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>603</v>
+        <v>583</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>605</v>
+        <v>585</v>
       </c>
       <c r="M25" s="7">
         <v>155</v>
@@ -9653,13 +9584,13 @@
         <v>75942</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>606</v>
+        <v>586</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>608</v>
+        <v>588</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9674,13 +9605,13 @@
         <v>252897</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>609</v>
+        <v>589</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="H26" s="7">
         <v>347</v>
@@ -9689,13 +9620,13 @@
         <v>223288</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="M26" s="7">
         <v>675</v>
@@ -9704,13 +9635,13 @@
         <v>476185</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>615</v>
+        <v>536</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>162</v>
+        <v>595</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9766,7 +9697,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -9784,7 +9715,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -9814,7 +9745,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>616</v>
+        <v>596</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9829,13 +9760,13 @@
         <v>43497</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>618</v>
+        <v>317</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="H29" s="7">
         <v>171</v>
@@ -9844,13 +9775,13 @@
         <v>219710</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>621</v>
+        <v>600</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="M29" s="7">
         <v>219</v>
@@ -9859,13 +9790,13 @@
         <v>263206</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>623</v>
+        <v>602</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>624</v>
+        <v>603</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>625</v>
+        <v>604</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9880,13 +9811,13 @@
         <v>577995</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>626</v>
+        <v>605</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>627</v>
+        <v>606</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>628</v>
+        <v>326</v>
       </c>
       <c r="H30" s="7">
         <v>782</v>
@@ -9895,13 +9826,13 @@
         <v>580712</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>629</v>
+        <v>607</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>630</v>
+        <v>608</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>631</v>
+        <v>609</v>
       </c>
       <c r="M30" s="7">
         <v>1327</v>
@@ -9910,13 +9841,13 @@
         <v>1158708</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>632</v>
+        <v>610</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>633</v>
+        <v>611</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>634</v>
+        <v>612</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9972,7 +9903,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -9990,7 +9921,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -9999,13 +9930,13 @@
         <v>2762</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>635</v>
+        <v>613</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -10014,13 +9945,13 @@
         <v>2762</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>559</v>
+        <v>614</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10035,13 +9966,13 @@
         <v>26102</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>636</v>
+        <v>615</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>637</v>
+        <v>616</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>246</v>
+        <v>328</v>
       </c>
       <c r="H33" s="7">
         <v>153</v>
@@ -10050,13 +9981,13 @@
         <v>111643</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>638</v>
+        <v>617</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>639</v>
+        <v>618</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>173</v>
+        <v>619</v>
       </c>
       <c r="M33" s="7">
         <v>185</v>
@@ -10065,13 +9996,13 @@
         <v>137746</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>641</v>
+        <v>621</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>642</v>
+        <v>622</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10086,13 +10017,13 @@
         <v>833326</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>643</v>
+        <v>623</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>254</v>
+        <v>337</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>644</v>
+        <v>624</v>
       </c>
       <c r="H34" s="7">
         <v>908</v>
@@ -10101,13 +10032,13 @@
         <v>754028</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>645</v>
+        <v>625</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>646</v>
+        <v>626</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>647</v>
+        <v>627</v>
       </c>
       <c r="M34" s="7">
         <v>1638</v>
@@ -10116,13 +10047,13 @@
         <v>1587354</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>648</v>
+        <v>195</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>650</v>
+        <v>629</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10205,13 +10136,13 @@
         <v>31497</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>651</v>
+        <v>614</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>652</v>
+        <v>630</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>653</v>
+        <v>631</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
@@ -10220,13 +10151,13 @@
         <v>31497</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>654</v>
+        <v>632</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>655</v>
+        <v>633</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10241,13 +10172,13 @@
         <v>185555</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>656</v>
+        <v>634</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>657</v>
+        <v>635</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>658</v>
+        <v>636</v>
       </c>
       <c r="H37" s="7">
         <v>958</v>
@@ -10256,13 +10187,13 @@
         <v>653290</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>659</v>
+        <v>637</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>660</v>
+        <v>65</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>661</v>
+        <v>638</v>
       </c>
       <c r="M37" s="7">
         <v>1198</v>
@@ -10271,13 +10202,13 @@
         <v>838845</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>662</v>
+        <v>639</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>663</v>
+        <v>640</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>664</v>
+        <v>641</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10292,13 +10223,13 @@
         <v>3191459</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>665</v>
+        <v>642</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>666</v>
+        <v>643</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>667</v>
+        <v>644</v>
       </c>
       <c r="H38" s="7">
         <v>4381</v>
@@ -10307,13 +10238,13 @@
         <v>3136443</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>668</v>
+        <v>645</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>669</v>
+        <v>646</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>670</v>
+        <v>647</v>
       </c>
       <c r="M38" s="7">
         <v>7509</v>
@@ -10322,13 +10253,13 @@
         <v>6327902</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>671</v>
+        <v>648</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>672</v>
+        <v>649</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>673</v>
+        <v>650</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10384,7 +10315,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1428-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1428-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E474E71-FECA-42B0-89AC-9DDA47D7B004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDB7C986-9DAE-4C8B-B3FD-FCB2958CFB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7F93ABDC-E804-420F-B4A4-788E4FA73A7C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C6D2FA49-7226-47C2-9878-9B1E1E590267}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="665">
   <si>
     <t>Población con diagnóstico de artritis en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,1866 +95,1911 @@
     <t>5,92%</t>
   </si>
   <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
   </si>
   <si>
     <t>13,2%</t>
   </si>
   <si>
-    <t>9,26%</t>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
   </si>
   <si>
     <t>18,36%</t>
   </si>
   <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
   </si>
   <si>
     <t>81,64%</t>
   </si>
   <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de artritis en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de artritis en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de artritis en 2023 (Tasa respuesta: 99,66%)</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
   </si>
   <si>
     <t>6,77%</t>
   </si>
   <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
   </si>
   <si>
     <t>93,23%</t>
   </si>
   <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
   </si>
   <si>
     <t>14,27%</t>
   </si>
   <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de artritis en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de artritis en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de artritis en 2023 (Tasa respuesta: 99,66%)</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
     <t>24,38%</t>
   </si>
   <si>
@@ -1980,9 +2025,6 @@
   </si>
   <si>
     <t>74,34%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
   </si>
   <si>
     <t>87,91%</t>
@@ -2403,7 +2445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B8185D-18A3-4FB7-946F-585318C92C7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD23730-EF85-46E4-81CC-7AED9B0C62C8}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2799,13 +2841,13 @@
         <v>92520</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M9" s="7">
         <v>113</v>
@@ -2814,13 +2856,13 @@
         <v>115016</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2835,13 +2877,13 @@
         <v>470579</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>409</v>
@@ -2850,13 +2892,13 @@
         <v>411429</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>851</v>
@@ -2865,13 +2907,13 @@
         <v>882008</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2927,7 +2969,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2945,7 +2987,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2960,7 +3002,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2975,7 +3017,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2990,13 +3032,13 @@
         <v>11707</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H13" s="7">
         <v>62</v>
@@ -3005,13 +3047,13 @@
         <v>61732</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>74</v>
@@ -3020,13 +3062,13 @@
         <v>73439</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3041,13 +3083,13 @@
         <v>307139</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>273</v>
@@ -3056,13 +3098,13 @@
         <v>273680</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
         <v>571</v>
@@ -3071,13 +3113,13 @@
         <v>580819</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3133,7 +3175,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3151,7 +3193,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3166,7 +3208,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3181,7 +3223,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3196,13 +3238,13 @@
         <v>23692</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H17" s="7">
         <v>66</v>
@@ -3211,13 +3253,13 @@
         <v>63976</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M17" s="7">
         <v>91</v>
@@ -3226,13 +3268,13 @@
         <v>87668</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3247,13 +3289,13 @@
         <v>334979</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H18" s="7">
         <v>318</v>
@@ -3262,13 +3304,13 @@
         <v>307480</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M18" s="7">
         <v>655</v>
@@ -3277,13 +3319,13 @@
         <v>642459</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3339,7 +3381,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3357,7 +3399,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3372,7 +3414,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3387,7 +3429,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,13 +3444,13 @@
         <v>15294</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H21" s="7">
         <v>39</v>
@@ -3417,13 +3459,13 @@
         <v>42108</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M21" s="7">
         <v>54</v>
@@ -3432,13 +3474,13 @@
         <v>57402</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3453,13 +3495,13 @@
         <v>188014</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H22" s="7">
         <v>159</v>
@@ -3468,13 +3510,13 @@
         <v>165560</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M22" s="7">
         <v>350</v>
@@ -3483,13 +3525,13 @@
         <v>353574</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,7 +3587,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3563,7 +3605,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3593,7 +3635,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,13 +3650,13 @@
         <v>17764</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
@@ -3623,13 +3665,13 @@
         <v>47866</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M25" s="7">
         <v>64</v>
@@ -3638,13 +3680,13 @@
         <v>65630</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3659,13 +3701,13 @@
         <v>253047</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H26" s="7">
         <v>225</v>
@@ -3674,13 +3716,13 @@
         <v>230278</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M26" s="7">
         <v>472</v>
@@ -3689,13 +3731,13 @@
         <v>483325</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,7 +3793,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3769,7 +3811,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3784,7 +3826,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3799,7 +3841,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,13 +3856,13 @@
         <v>49965</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H29" s="7">
         <v>93</v>
@@ -3829,13 +3871,13 @@
         <v>93928</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M29" s="7">
         <v>143</v>
@@ -3844,13 +3886,13 @@
         <v>143892</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3865,13 +3907,13 @@
         <v>565062</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H30" s="7">
         <v>528</v>
@@ -3880,13 +3922,13 @@
         <v>544291</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M30" s="7">
         <v>1076</v>
@@ -3895,13 +3937,13 @@
         <v>1109354</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,7 +3999,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3975,7 +4017,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3990,7 +4032,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -4005,7 +4047,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,13 +4062,13 @@
         <v>79473</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H33" s="7">
         <v>149</v>
@@ -4035,13 +4077,13 @@
         <v>159989</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M33" s="7">
         <v>233</v>
@@ -4050,13 +4092,13 @@
         <v>239462</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4071,13 +4113,13 @@
         <v>664322</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H34" s="7">
         <v>596</v>
@@ -4086,13 +4128,13 @@
         <v>623522</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M34" s="7">
         <v>1248</v>
@@ -4101,13 +4143,13 @@
         <v>1287844</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,7 +4223,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -4196,7 +4238,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -4211,7 +4253,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4226,13 +4268,13 @@
         <v>236558</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H37" s="7">
         <v>577</v>
@@ -4241,13 +4283,13 @@
         <v>596553</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M37" s="7">
         <v>822</v>
@@ -4256,13 +4298,13 @@
         <v>833111</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,16 +4316,16 @@
         <v>2969</v>
       </c>
       <c r="D38" s="7">
-        <v>3039986</v>
+        <v>3039985</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H38" s="7">
         <v>2720</v>
@@ -4292,13 +4334,13 @@
         <v>2782645</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M38" s="7">
         <v>5689</v>
@@ -4307,13 +4349,13 @@
         <v>5822630</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4325,7 +4367,7 @@
         <v>3214</v>
       </c>
       <c r="D39" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>36</v>
@@ -4369,7 +4411,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -4393,7 +4435,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C28690-21EC-4882-AECD-D16229298DD5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735E8FE9-B709-4648-811D-270FF1C05278}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4410,7 +4452,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4515,39 +4557,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4560,39 +4602,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,39 +4647,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4650,39 +4692,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,7 +4762,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4750,13 +4792,13 @@
         <v>14516</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H9" s="7">
         <v>45</v>
@@ -4765,13 +4807,13 @@
         <v>49185</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>133</v>
+        <v>213</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="M9" s="7">
         <v>57</v>
@@ -4780,13 +4822,13 @@
         <v>63701</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,13 +4843,13 @@
         <v>491011</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H10" s="7">
         <v>435</v>
@@ -4816,13 +4858,13 @@
         <v>474580</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>140</v>
+        <v>34</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="M10" s="7">
         <v>895</v>
@@ -4831,13 +4873,13 @@
         <v>965591</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4893,7 +4935,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4911,7 +4953,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4926,7 +4968,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4941,7 +4983,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4956,13 +4998,13 @@
         <v>23250</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -4971,13 +5013,13 @@
         <v>50328</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="M13" s="7">
         <v>69</v>
@@ -4986,13 +5028,13 @@
         <v>73578</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5007,13 +5049,13 @@
         <v>300796</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="H14" s="7">
         <v>270</v>
@@ -5022,13 +5064,13 @@
         <v>290692</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="M14" s="7">
         <v>567</v>
@@ -5037,13 +5079,13 @@
         <v>591488</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5099,7 +5141,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5117,7 +5159,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5132,7 +5174,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5147,7 +5189,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5162,13 +5204,13 @@
         <v>29190</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="H17" s="7">
         <v>63</v>
@@ -5177,13 +5219,13 @@
         <v>67877</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>89</v>
@@ -5192,13 +5234,13 @@
         <v>97067</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5213,13 +5255,13 @@
         <v>639530</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H18" s="7">
         <v>564</v>
@@ -5228,13 +5270,13 @@
         <v>608319</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="M18" s="7">
         <v>1164</v>
@@ -5243,13 +5285,13 @@
         <v>1247849</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5305,7 +5347,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5323,7 +5365,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5338,7 +5380,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5353,7 +5395,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5368,13 +5410,13 @@
         <v>11079</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="H21" s="7">
         <v>32</v>
@@ -5383,13 +5425,13 @@
         <v>34421</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>260</v>
+        <v>69</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="M21" s="7">
         <v>42</v>
@@ -5398,13 +5440,13 @@
         <v>45500</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5419,13 +5461,13 @@
         <v>201539</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="H22" s="7">
         <v>180</v>
@@ -5434,13 +5476,13 @@
         <v>185170</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>270</v>
+        <v>78</v>
       </c>
       <c r="M22" s="7">
         <v>366</v>
@@ -5449,13 +5491,13 @@
         <v>386709</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5511,7 +5553,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5529,7 +5571,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5559,7 +5601,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5574,13 +5616,13 @@
         <v>31074</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="H25" s="7">
         <v>56</v>
@@ -5589,13 +5631,13 @@
         <v>56935</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="M25" s="7">
         <v>86</v>
@@ -5604,13 +5646,13 @@
         <v>88008</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5625,13 +5667,13 @@
         <v>242907</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="H26" s="7">
         <v>212</v>
@@ -5640,13 +5682,13 @@
         <v>221161</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="M26" s="7">
         <v>443</v>
@@ -5655,13 +5697,13 @@
         <v>464069</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5717,7 +5759,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5735,7 +5777,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5750,7 +5792,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -5765,7 +5807,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5780,13 +5822,13 @@
         <v>40432</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="H29" s="7">
         <v>95</v>
@@ -5795,13 +5837,13 @@
         <v>107681</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>64</v>
+        <v>304</v>
       </c>
       <c r="M29" s="7">
         <v>131</v>
@@ -5810,13 +5852,13 @@
         <v>148114</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5831,13 +5873,13 @@
         <v>622356</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="H30" s="7">
         <v>541</v>
@@ -5846,13 +5888,13 @@
         <v>586172</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>73</v>
+        <v>312</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="M30" s="7">
         <v>1123</v>
@@ -5861,13 +5903,13 @@
         <v>1208527</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5923,7 +5965,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -5941,7 +5983,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5956,7 +5998,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -5971,7 +6013,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5986,13 +6028,13 @@
         <v>26763</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="H33" s="7">
         <v>67</v>
@@ -6001,13 +6043,13 @@
         <v>74250</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="M33" s="7">
         <v>91</v>
@@ -6016,13 +6058,13 @@
         <v>101013</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>63</v>
+        <v>325</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6037,13 +6079,13 @@
         <v>752335</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="H34" s="7">
         <v>689</v>
@@ -6052,13 +6094,13 @@
         <v>748328</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="M34" s="7">
         <v>1382</v>
@@ -6067,13 +6109,13 @@
         <v>1500663</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>71</v>
+        <v>334</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6147,7 +6189,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6162,7 +6204,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -6177,7 +6219,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6192,13 +6234,13 @@
         <v>176304</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="H37" s="7">
         <v>405</v>
@@ -6207,13 +6249,13 @@
         <v>440677</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="M37" s="7">
         <v>565</v>
@@ -6222,13 +6264,13 @@
         <v>616981</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>334</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6243,13 +6285,13 @@
         <v>3250475</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="H38" s="7">
         <v>2891</v>
@@ -6258,28 +6300,28 @@
         <v>3114421</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="M38" s="7">
         <v>5940</v>
       </c>
       <c r="N38" s="7">
-        <v>6364897</v>
+        <v>6364896</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>341</v>
+        <v>95</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6321,7 +6363,7 @@
         <v>6505</v>
       </c>
       <c r="N39" s="7">
-        <v>6981878</v>
+        <v>6981877</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>36</v>
@@ -6335,7 +6377,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -6359,7 +6401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5064992E-CBE1-46B0-B6A3-630F9FE771F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C9F7B3-AA95-4EA0-B963-7388DFAE82EC}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6376,7 +6418,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6489,7 +6531,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6504,7 +6546,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6519,7 +6561,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6534,13 +6576,13 @@
         <v>16537</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="H5" s="7">
         <v>23</v>
@@ -6549,13 +6591,13 @@
         <v>25327</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
@@ -6564,13 +6606,13 @@
         <v>41864</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6585,13 +6627,13 @@
         <v>277224</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H6" s="7">
         <v>254</v>
@@ -6600,13 +6642,13 @@
         <v>263376</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="M6" s="7">
         <v>504</v>
@@ -6615,13 +6657,13 @@
         <v>540600</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6695,7 +6737,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6710,7 +6752,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6740,13 +6782,13 @@
         <v>15387</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="H9" s="7">
         <v>42</v>
@@ -6755,13 +6797,13 @@
         <v>48660</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="M9" s="7">
         <v>57</v>
@@ -6770,13 +6812,13 @@
         <v>64046</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6791,13 +6833,13 @@
         <v>487188</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="H10" s="7">
         <v>442</v>
@@ -6806,13 +6848,13 @@
         <v>474424</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="M10" s="7">
         <v>902</v>
@@ -6821,13 +6863,13 @@
         <v>961613</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6883,7 +6925,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6901,7 +6943,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -6916,7 +6958,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6931,7 +6973,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6946,13 +6988,13 @@
         <v>12304</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -6961,13 +7003,13 @@
         <v>26331</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>225</v>
+        <v>395</v>
       </c>
       <c r="M13" s="7">
         <v>39</v>
@@ -6976,13 +7018,13 @@
         <v>38635</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>390</v>
+        <v>338</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>391</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6997,13 +7039,13 @@
         <v>306261</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="H14" s="7">
         <v>307</v>
@@ -7012,13 +7054,13 @@
         <v>309978</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>235</v>
+        <v>401</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="M14" s="7">
         <v>628</v>
@@ -7027,13 +7069,13 @@
         <v>616239</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>398</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>399</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7089,7 +7131,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7107,7 +7149,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7122,7 +7164,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -7137,7 +7179,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7152,13 +7194,13 @@
         <v>15464</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
@@ -7167,13 +7209,13 @@
         <v>50024</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>404</v>
+        <v>172</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="M17" s="7">
         <v>60</v>
@@ -7182,13 +7224,13 @@
         <v>65488</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>126</v>
+        <v>411</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7203,13 +7245,13 @@
         <v>354500</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="H18" s="7">
         <v>313</v>
@@ -7218,13 +7260,13 @@
         <v>337259</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>412</v>
+        <v>180</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="M18" s="7">
         <v>652</v>
@@ -7233,13 +7275,13 @@
         <v>691759</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>134</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7295,7 +7337,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7313,7 +7355,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7328,7 +7370,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7343,7 +7385,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7358,13 +7400,13 @@
         <v>6244</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>420</v>
+        <v>105</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>421</v>
+        <v>65</v>
       </c>
       <c r="H21" s="7">
         <v>20</v>
@@ -7373,13 +7415,13 @@
         <v>21346</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>47</v>
+        <v>424</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="M21" s="7">
         <v>26</v>
@@ -7388,13 +7430,13 @@
         <v>27590</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7409,13 +7451,13 @@
         <v>204977</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>428</v>
+        <v>73</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="H22" s="7">
         <v>203</v>
@@ -7424,13 +7466,13 @@
         <v>197241</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>56</v>
+        <v>432</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="M22" s="7">
         <v>409</v>
@@ -7439,13 +7481,13 @@
         <v>402218</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7501,7 +7543,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7519,7 +7561,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7534,7 +7576,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7564,13 +7606,13 @@
         <v>11361</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="H25" s="7">
         <v>32</v>
@@ -7579,13 +7621,13 @@
         <v>35682</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>21</v>
+        <v>443</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>440</v>
+        <v>44</v>
       </c>
       <c r="M25" s="7">
         <v>44</v>
@@ -7594,13 +7636,13 @@
         <v>47043</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7615,13 +7657,13 @@
         <v>251762</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="H26" s="7">
         <v>231</v>
@@ -7630,13 +7672,13 @@
         <v>237433</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>447</v>
+        <v>53</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>32</v>
+        <v>450</v>
       </c>
       <c r="M26" s="7">
         <v>478</v>
@@ -7645,13 +7687,13 @@
         <v>489195</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7707,7 +7749,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7725,7 +7767,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7740,7 +7782,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -7755,7 +7797,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7770,13 +7812,13 @@
         <v>23957</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="H29" s="7">
         <v>48</v>
@@ -7785,13 +7827,13 @@
         <v>55354</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>147</v>
+        <v>458</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="M29" s="7">
         <v>72</v>
@@ -7800,13 +7842,13 @@
         <v>79311</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>147</v>
+        <v>460</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>456</v>
+        <v>216</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7821,13 +7863,13 @@
         <v>632601</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="H30" s="7">
         <v>598</v>
@@ -7836,13 +7878,13 @@
         <v>635940</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>157</v>
+        <v>467</v>
       </c>
       <c r="M30" s="7">
         <v>1154</v>
@@ -7851,13 +7893,13 @@
         <v>1268541</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>157</v>
+        <v>468</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>464</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7913,7 +7955,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -7931,7 +7973,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7946,7 +7988,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7961,7 +8003,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7976,13 +8018,13 @@
         <v>20691</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="H33" s="7">
         <v>57</v>
@@ -7991,13 +8033,13 @@
         <v>69359</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="M33" s="7">
         <v>75</v>
@@ -8006,13 +8048,13 @@
         <v>90050</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>472</v>
+        <v>428</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>209</v>
+        <v>477</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8027,13 +8069,13 @@
         <v>757892</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="H34" s="7">
         <v>698</v>
@@ -8042,13 +8084,13 @@
         <v>756808</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="M34" s="7">
         <v>1430</v>
@@ -8057,13 +8099,13 @@
         <v>1514700</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>216</v>
+        <v>485</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>480</v>
+        <v>437</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8137,7 +8179,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -8152,7 +8194,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -8167,7 +8209,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8182,13 +8224,13 @@
         <v>121945</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>390</v>
+        <v>488</v>
       </c>
       <c r="H37" s="7">
         <v>292</v>
@@ -8197,13 +8239,13 @@
         <v>332083</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>483</v>
+        <v>21</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="M37" s="7">
         <v>412</v>
@@ -8212,13 +8254,13 @@
         <v>454028</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>469</v>
+        <v>491</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>486</v>
+        <v>339</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>487</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8233,13 +8275,13 @@
         <v>3272405</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>399</v>
+        <v>493</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="H38" s="7">
         <v>3046</v>
@@ -8248,13 +8290,13 @@
         <v>3212459</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>490</v>
+        <v>32</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="M38" s="7">
         <v>6157</v>
@@ -8263,13 +8305,13 @@
         <v>6484864</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>493</v>
+        <v>236</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>494</v>
+        <v>346</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8325,7 +8367,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -8349,7 +8391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60097DCE-5B96-40FE-956F-CFF9FDC7CEAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F48A58-AFD2-44A7-B0A5-2E5AB68B316C}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8366,7 +8408,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8479,7 +8521,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8494,7 +8536,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8509,7 +8551,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8524,13 +8566,13 @@
         <v>8343</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>466</v>
+        <v>501</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="H5" s="7">
         <v>48</v>
@@ -8539,13 +8581,13 @@
         <v>22390</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="M5" s="7">
         <v>60</v>
@@ -8554,13 +8596,13 @@
         <v>30733</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8575,13 +8617,13 @@
         <v>251955</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>475</v>
+        <v>510</v>
       </c>
       <c r="H6" s="7">
         <v>490</v>
@@ -8590,13 +8632,13 @@
         <v>249013</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="M6" s="7">
         <v>809</v>
@@ -8605,13 +8647,13 @@
         <v>500967</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8685,7 +8727,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -8700,7 +8742,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -8715,7 +8757,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8730,13 +8772,13 @@
         <v>21245</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>127</v>
+        <v>517</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="H9" s="7">
         <v>76</v>
@@ -8745,13 +8787,13 @@
         <v>50742</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="M9" s="7">
         <v>95</v>
@@ -8760,13 +8802,13 @@
         <v>71987</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>43</v>
+        <v>522</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8781,13 +8823,13 @@
         <v>496100</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>136</v>
+        <v>525</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="H10" s="7">
         <v>629</v>
@@ -8796,13 +8838,13 @@
         <v>494763</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="M10" s="7">
         <v>990</v>
@@ -8811,13 +8853,13 @@
         <v>990863</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>50</v>
+        <v>530</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8873,7 +8915,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -8891,7 +8933,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -8906,7 +8948,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -8921,7 +8963,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8936,13 +8978,13 @@
         <v>20483</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>525</v>
+        <v>191</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="H13" s="7">
         <v>104</v>
@@ -8951,13 +8993,13 @@
         <v>60150</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="M13" s="7">
         <v>132</v>
@@ -8966,13 +9008,13 @@
         <v>80632</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8987,13 +9029,13 @@
         <v>301757</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>533</v>
+        <v>200</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="H14" s="7">
         <v>431</v>
@@ -9002,13 +9044,13 @@
         <v>312537</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="M14" s="7">
         <v>763</v>
@@ -9017,13 +9059,13 @@
         <v>614296</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>100</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9079,7 +9121,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -9097,7 +9139,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -9112,7 +9154,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -9127,7 +9169,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9142,13 +9184,13 @@
         <v>30792</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>334</v>
+        <v>549</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>130</v>
+        <v>551</v>
       </c>
       <c r="H17" s="7">
         <v>188</v>
@@ -9157,13 +9199,13 @@
         <v>94593</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="M17" s="7">
         <v>227</v>
@@ -9172,13 +9214,13 @@
         <v>125384</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9193,13 +9235,13 @@
         <v>291448</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>341</v>
+        <v>558</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>139</v>
+        <v>559</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="H18" s="7">
         <v>410</v>
@@ -9208,13 +9250,13 @@
         <v>333529</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="M18" s="7">
         <v>663</v>
@@ -9223,13 +9265,13 @@
         <v>624978</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9285,7 +9327,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -9303,7 +9345,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -9312,13 +9354,13 @@
         <v>28017</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -9327,13 +9369,13 @@
         <v>28017</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9348,13 +9390,13 @@
         <v>10768</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="H21" s="7">
         <v>106</v>
@@ -9363,13 +9405,13 @@
         <v>42447</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="M21" s="7">
         <v>125</v>
@@ -9378,13 +9420,13 @@
         <v>53215</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>569</v>
+        <v>443</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9399,13 +9441,13 @@
         <v>185980</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="H22" s="7">
         <v>384</v>
@@ -9414,13 +9456,13 @@
         <v>188573</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="M22" s="7">
         <v>644</v>
@@ -9429,13 +9471,13 @@
         <v>374552</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9491,7 +9533,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9509,7 +9551,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -9518,13 +9560,13 @@
         <v>718</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -9533,13 +9575,13 @@
         <v>718</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9554,13 +9596,13 @@
         <v>24326</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="H25" s="7">
         <v>112</v>
@@ -9569,13 +9611,13 @@
         <v>51616</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="M25" s="7">
         <v>155</v>
@@ -9584,13 +9626,13 @@
         <v>75942</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9605,13 +9647,13 @@
         <v>252897</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="H26" s="7">
         <v>347</v>
@@ -9620,13 +9662,13 @@
         <v>223288</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>591</v>
+        <v>312</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="M26" s="7">
         <v>675</v>
@@ -9635,13 +9677,13 @@
         <v>476185</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9697,7 +9739,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -9715,7 +9757,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -9745,7 +9787,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9760,13 +9802,13 @@
         <v>43497</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>317</v>
+        <v>607</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="H29" s="7">
         <v>171</v>
@@ -9775,13 +9817,13 @@
         <v>219710</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="M29" s="7">
         <v>219</v>
@@ -9790,13 +9832,13 @@
         <v>263206</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9811,13 +9853,13 @@
         <v>577995</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>326</v>
+        <v>617</v>
       </c>
       <c r="H30" s="7">
         <v>782</v>
@@ -9826,13 +9868,13 @@
         <v>580712</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="M30" s="7">
         <v>1327</v>
@@ -9841,13 +9883,13 @@
         <v>1158708</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9903,7 +9945,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -9921,7 +9963,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -9930,13 +9972,13 @@
         <v>2762</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -9945,13 +9987,13 @@
         <v>2762</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9966,13 +10008,13 @@
         <v>26102</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>328</v>
+        <v>628</v>
       </c>
       <c r="H33" s="7">
         <v>153</v>
@@ -9981,13 +10023,13 @@
         <v>111643</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="M33" s="7">
         <v>185</v>
@@ -9996,13 +10038,13 @@
         <v>137746</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10017,13 +10059,13 @@
         <v>833326</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>337</v>
+        <v>636</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>624</v>
+        <v>637</v>
       </c>
       <c r="H34" s="7">
         <v>908</v>
@@ -10032,13 +10074,13 @@
         <v>754028</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="M34" s="7">
         <v>1638</v>
@@ -10047,13 +10089,13 @@
         <v>1587354</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>195</v>
+        <v>641</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>628</v>
+        <v>642</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>629</v>
+        <v>643</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10127,7 +10169,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -10136,13 +10178,13 @@
         <v>31497</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>630</v>
+        <v>644</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>631</v>
+        <v>645</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
@@ -10151,13 +10193,13 @@
         <v>31497</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>632</v>
+        <v>646</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>633</v>
+        <v>647</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10172,13 +10214,13 @@
         <v>185555</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>634</v>
+        <v>648</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>635</v>
+        <v>649</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>636</v>
+        <v>650</v>
       </c>
       <c r="H37" s="7">
         <v>958</v>
@@ -10187,13 +10229,13 @@
         <v>653290</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>637</v>
+        <v>651</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>65</v>
+        <v>652</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>638</v>
+        <v>653</v>
       </c>
       <c r="M37" s="7">
         <v>1198</v>
@@ -10202,13 +10244,13 @@
         <v>838845</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>639</v>
+        <v>654</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>640</v>
+        <v>655</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>641</v>
+        <v>656</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10223,13 +10265,13 @@
         <v>3191459</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>642</v>
+        <v>657</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>643</v>
+        <v>658</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>644</v>
+        <v>659</v>
       </c>
       <c r="H38" s="7">
         <v>4381</v>
@@ -10238,13 +10280,13 @@
         <v>3136443</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>646</v>
+        <v>661</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>647</v>
+        <v>121</v>
       </c>
       <c r="M38" s="7">
         <v>7509</v>
@@ -10253,13 +10295,13 @@
         <v>6327902</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>648</v>
+        <v>662</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>649</v>
+        <v>663</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>650</v>
+        <v>664</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10315,7 +10357,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1428-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1428-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32E35887-81B0-42E2-A79F-D3D12D7347EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E94C298F-F7EE-409F-8808-B86F99CDCCF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0C16C088-7999-4B69-94BF-0C8F5B40C627}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FC07ACA8-DB7A-4327-B6A9-028CBF456593}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="626">
   <si>
     <t>Población con diagnóstico de artritis en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -581,7 +581,58 @@
     <t>Población con diagnóstico de artritis en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
   </si>
   <si>
     <t>2,87%</t>
@@ -590,9 +641,6 @@
     <t>1,62%</t>
   </si>
   <si>
-    <t>5,07%</t>
-  </si>
-  <si>
     <t>9,39%</t>
   </si>
   <si>
@@ -614,9 +662,6 @@
     <t>97,13%</t>
   </si>
   <si>
-    <t>94,93%</t>
-  </si>
-  <si>
     <t>98,38%</t>
   </si>
   <si>
@@ -692,1186 +737,1186 @@
     <t>91,25%</t>
   </si>
   <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de artritis en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
   </si>
   <si>
     <t>8,01%</t>
   </si>
   <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de artritis en 2023 (Tasa respuesta: 99,59%)</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
     <t>12,51%</t>
   </si>
   <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
   </si>
   <si>
     <t>87,49%</t>
   </si>
   <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de artritis en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de artritis en 2023 (Tasa respuesta: 99,59%)</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
   </si>
 </sst>
 </file>
@@ -2283,7 +2328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BD270F-065D-4F6F-B6EC-1DD511391320}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EE9EBA-FACF-4D17-8F85-7DDC55FF1DC7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3695,7 +3740,7 @@
         <v>2969</v>
       </c>
       <c r="D29" s="7">
-        <v>3039986</v>
+        <v>3039985</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>169</v>
@@ -3710,7 +3755,7 @@
         <v>2720</v>
       </c>
       <c r="I29" s="7">
-        <v>2782645</v>
+        <v>2782644</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>172</v>
@@ -3725,7 +3770,7 @@
         <v>5689</v>
       </c>
       <c r="N29" s="7">
-        <v>5822629</v>
+        <v>5822630</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>175</v>
@@ -3746,7 +3791,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3761,7 +3806,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3776,7 +3821,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3814,7 +3859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3144DF-8BBC-4319-B6D0-32885F542FAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19573696-FA5B-4EB5-AFB9-C28635488756}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3932,43 +3977,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="D4" s="7">
+        <v>12492</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="I4" s="7">
+        <v>22822</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="N4" s="7">
+        <v>35313</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3977,43 +4028,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>271</v>
+      </c>
+      <c r="D5" s="7">
+        <v>282246</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>236</v>
+      </c>
+      <c r="I5" s="7">
+        <v>264423</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>507</v>
+      </c>
+      <c r="N5" s="7">
+        <v>546670</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4022,43 +4079,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4075,13 +4138,13 @@
         <v>14516</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H7" s="7">
         <v>45</v>
@@ -4090,13 +4153,13 @@
         <v>49185</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="M7" s="7">
         <v>57</v>
@@ -4105,13 +4168,13 @@
         <v>63701</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4126,13 +4189,13 @@
         <v>491011</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="H8" s="7">
         <v>435</v>
@@ -4141,13 +4204,13 @@
         <v>474580</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="M8" s="7">
         <v>895</v>
@@ -4156,13 +4219,13 @@
         <v>965591</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4230,13 +4293,13 @@
         <v>23250</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="H10" s="7">
         <v>47</v>
@@ -4245,13 +4308,13 @@
         <v>50328</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="M10" s="7">
         <v>69</v>
@@ -4260,13 +4323,13 @@
         <v>73578</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4281,13 +4344,13 @@
         <v>300796</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="H11" s="7">
         <v>270</v>
@@ -4296,13 +4359,13 @@
         <v>290692</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="M11" s="7">
         <v>567</v>
@@ -4311,13 +4374,13 @@
         <v>591488</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4379,49 +4442,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7">
-        <v>29190</v>
+        <v>16699</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="H13" s="7">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="I13" s="7">
-        <v>67877</v>
+        <v>45055</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="M13" s="7">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="N13" s="7">
-        <v>97067</v>
+        <v>61754</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>160</v>
+        <v>238</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4430,49 +4493,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>600</v>
+        <v>329</v>
       </c>
       <c r="D14" s="7">
-        <v>639530</v>
+        <v>357283</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="H14" s="7">
-        <v>564</v>
+        <v>328</v>
       </c>
       <c r="I14" s="7">
-        <v>608319</v>
+        <v>343896</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="M14" s="7">
-        <v>1164</v>
+        <v>657</v>
       </c>
       <c r="N14" s="7">
-        <v>1247849</v>
+        <v>701179</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4481,10 +4544,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4496,10 +4559,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4511,10 +4574,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4540,13 +4603,13 @@
         <v>11079</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="H16" s="7">
         <v>32</v>
@@ -4555,13 +4618,13 @@
         <v>34421</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="M16" s="7">
         <v>42</v>
@@ -4570,13 +4633,13 @@
         <v>45500</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4591,13 +4654,13 @@
         <v>201539</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="H17" s="7">
         <v>180</v>
@@ -4606,13 +4669,13 @@
         <v>185170</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="M17" s="7">
         <v>366</v>
@@ -4621,13 +4684,13 @@
         <v>386709</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4695,13 +4758,13 @@
         <v>31074</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="H19" s="7">
         <v>56</v>
@@ -4710,13 +4773,13 @@
         <v>56935</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="M19" s="7">
         <v>86</v>
@@ -4725,13 +4788,13 @@
         <v>88008</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4746,13 +4809,13 @@
         <v>242907</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="H20" s="7">
         <v>212</v>
@@ -4761,13 +4824,13 @@
         <v>221161</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="M20" s="7">
         <v>443</v>
@@ -4776,13 +4839,13 @@
         <v>464069</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,10 +4913,10 @@
         <v>40432</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>145</v>
@@ -4865,13 +4928,13 @@
         <v>107681</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="M22" s="7">
         <v>131</v>
@@ -4880,13 +4943,13 @@
         <v>148114</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4901,13 +4964,13 @@
         <v>622356</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>154</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="H23" s="7">
         <v>541</v>
@@ -4916,13 +4979,13 @@
         <v>586172</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="M23" s="7">
         <v>1123</v>
@@ -4931,13 +4994,13 @@
         <v>1208527</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5005,13 +5068,13 @@
         <v>26763</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="H25" s="7">
         <v>67</v>
@@ -5020,13 +5083,13 @@
         <v>74250</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="M25" s="7">
         <v>91</v>
@@ -5035,13 +5098,13 @@
         <v>101013</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5056,13 +5119,13 @@
         <v>752335</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="H26" s="7">
         <v>689</v>
@@ -5071,13 +5134,13 @@
         <v>748328</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="M26" s="7">
         <v>1382</v>
@@ -5086,13 +5149,13 @@
         <v>1500663</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,13 +5223,13 @@
         <v>176304</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="H28" s="7">
         <v>405</v>
@@ -5175,13 +5238,13 @@
         <v>440677</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="M28" s="7">
         <v>565</v>
@@ -5190,13 +5253,13 @@
         <v>616981</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,13 +5274,13 @@
         <v>3250475</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="H29" s="7">
         <v>2891</v>
@@ -5226,13 +5289,13 @@
         <v>3114421</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="M29" s="7">
         <v>5940</v>
@@ -5241,13 +5304,13 @@
         <v>6364896</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5327,7 +5390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B5241BA-0B32-4F3E-8D42-A1650DE8414C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F27FB65-F9B4-4CB4-9878-E85E8BD94F0C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5344,7 +5407,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5451,13 +5514,13 @@
         <v>16537</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="H4" s="7">
         <v>23</v>
@@ -5466,13 +5529,13 @@
         <v>25327</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="M4" s="7">
         <v>39</v>
@@ -5481,13 +5544,13 @@
         <v>41864</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5502,13 +5565,13 @@
         <v>277224</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="H5" s="7">
         <v>254</v>
@@ -5517,13 +5580,13 @@
         <v>263376</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="M5" s="7">
         <v>504</v>
@@ -5532,13 +5595,13 @@
         <v>540600</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5606,13 +5669,13 @@
         <v>15387</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="H7" s="7">
         <v>42</v>
@@ -5621,13 +5684,13 @@
         <v>48660</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="M7" s="7">
         <v>57</v>
@@ -5636,13 +5699,13 @@
         <v>64046</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5657,13 +5720,13 @@
         <v>487188</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="H8" s="7">
         <v>442</v>
@@ -5672,13 +5735,13 @@
         <v>474424</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="M8" s="7">
         <v>902</v>
@@ -5687,13 +5750,13 @@
         <v>961613</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5761,13 +5824,13 @@
         <v>12304</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -5776,13 +5839,13 @@
         <v>26331</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
@@ -5791,13 +5854,13 @@
         <v>38635</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5812,13 +5875,13 @@
         <v>306261</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="H11" s="7">
         <v>307</v>
@@ -5827,13 +5890,13 @@
         <v>309978</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="M11" s="7">
         <v>628</v>
@@ -5842,13 +5905,13 @@
         <v>616239</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5916,13 +5979,13 @@
         <v>15464</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="H13" s="7">
         <v>45</v>
@@ -5931,10 +5994,10 @@
         <v>50024</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>109</v>
@@ -5946,13 +6009,13 @@
         <v>65488</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5967,13 +6030,13 @@
         <v>354500</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="H14" s="7">
         <v>313</v>
@@ -5982,13 +6045,13 @@
         <v>337259</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>118</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="M14" s="7">
         <v>652</v>
@@ -5997,13 +6060,13 @@
         <v>691759</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6071,13 +6134,13 @@
         <v>6244</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -6086,10 +6149,10 @@
         <v>21346</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>77</v>
@@ -6101,13 +6164,13 @@
         <v>27590</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6122,13 +6185,13 @@
         <v>204977</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="H17" s="7">
         <v>203</v>
@@ -6137,13 +6200,13 @@
         <v>197241</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>84</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="M17" s="7">
         <v>409</v>
@@ -6152,13 +6215,13 @@
         <v>402218</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6226,13 +6289,13 @@
         <v>11361</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="H19" s="7">
         <v>32</v>
@@ -6241,13 +6304,13 @@
         <v>35682</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="M19" s="7">
         <v>44</v>
@@ -6256,13 +6319,13 @@
         <v>47043</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6277,13 +6340,13 @@
         <v>251762</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="H20" s="7">
         <v>231</v>
@@ -6292,13 +6355,13 @@
         <v>237433</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="M20" s="7">
         <v>478</v>
@@ -6307,13 +6370,13 @@
         <v>489195</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6381,13 +6444,13 @@
         <v>23957</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="H22" s="7">
         <v>48</v>
@@ -6396,13 +6459,13 @@
         <v>55354</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>221</v>
+        <v>442</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c r="M22" s="7">
         <v>72</v>
@@ -6411,13 +6474,13 @@
         <v>79311</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6432,13 +6495,13 @@
         <v>632601</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>430</v>
+        <v>448</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>431</v>
+        <v>449</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="H23" s="7">
         <v>598</v>
@@ -6447,13 +6510,13 @@
         <v>635940</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>230</v>
+        <v>451</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="M23" s="7">
         <v>1154</v>
@@ -6462,13 +6525,13 @@
         <v>1268541</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6536,13 +6599,13 @@
         <v>20691</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="H25" s="7">
         <v>57</v>
@@ -6551,13 +6614,13 @@
         <v>69359</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="M25" s="7">
         <v>75</v>
@@ -6566,13 +6629,13 @@
         <v>90050</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>88</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>445</v>
+        <v>464</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6587,13 +6650,13 @@
         <v>757892</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="H26" s="7">
         <v>698</v>
@@ -6602,13 +6665,13 @@
         <v>756808</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="M26" s="7">
         <v>1430</v>
@@ -6617,10 +6680,10 @@
         <v>1514700</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>453</v>
+        <v>472</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>98</v>
@@ -6691,13 +6754,13 @@
         <v>121945</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="H28" s="7">
         <v>292</v>
@@ -6706,13 +6769,13 @@
         <v>332083</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="M28" s="7">
         <v>412</v>
@@ -6721,10 +6784,10 @@
         <v>454028</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>34</v>
@@ -6742,13 +6805,13 @@
         <v>3272405</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="H29" s="7">
         <v>3046</v>
@@ -6757,13 +6820,13 @@
         <v>3212459</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>463</v>
+        <v>482</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="M29" s="7">
         <v>6157</v>
@@ -6772,13 +6835,13 @@
         <v>6484864</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>466</v>
+        <v>485</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6858,7 +6921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD806D6-DDC6-4E58-99D4-FD4169B5FD61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95B9603-626C-4420-8DEB-4F5C31029182}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6875,7 +6938,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6979,46 +7042,46 @@
         <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>8343</v>
+        <v>9197</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>469</v>
+        <v>488</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>470</v>
+        <v>489</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>471</v>
+        <v>490</v>
       </c>
       <c r="H4" s="7">
         <v>48</v>
       </c>
       <c r="I4" s="7">
-        <v>22390</v>
+        <v>22882</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>473</v>
+        <v>492</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>474</v>
+        <v>444</v>
       </c>
       <c r="M4" s="7">
         <v>60</v>
       </c>
       <c r="N4" s="7">
-        <v>30733</v>
+        <v>32079</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>475</v>
+        <v>441</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7030,46 +7093,46 @@
         <v>319</v>
       </c>
       <c r="D5" s="7">
-        <v>251955</v>
+        <v>302246</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="H5" s="7">
         <v>490</v>
       </c>
       <c r="I5" s="7">
-        <v>249013</v>
+        <v>266753</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>482</v>
+        <v>452</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="M5" s="7">
         <v>809</v>
       </c>
       <c r="N5" s="7">
-        <v>500967</v>
+        <v>568998</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>484</v>
+        <v>449</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7081,7 +7144,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7096,7 +7159,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7111,7 +7174,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7134,46 +7197,46 @@
         <v>19</v>
       </c>
       <c r="D7" s="7">
-        <v>21245</v>
+        <v>19936</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>187</v>
+        <v>503</v>
       </c>
       <c r="H7" s="7">
         <v>76</v>
       </c>
       <c r="I7" s="7">
-        <v>50742</v>
+        <v>46549</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>343</v>
+        <v>504</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>131</v>
+        <v>268</v>
       </c>
       <c r="M7" s="7">
         <v>95</v>
       </c>
       <c r="N7" s="7">
-        <v>71987</v>
+        <v>66484</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>491</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7185,46 +7248,46 @@
         <v>361</v>
       </c>
       <c r="D8" s="7">
-        <v>496100</v>
+        <v>496625</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>196</v>
+        <v>508</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="H8" s="7">
         <v>629</v>
       </c>
       <c r="I8" s="7">
-        <v>494763</v>
+        <v>460195</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>352</v>
+        <v>510</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>140</v>
+        <v>277</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="M8" s="7">
         <v>990</v>
       </c>
       <c r="N8" s="7">
-        <v>990863</v>
+        <v>956821</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>495</v>
+        <v>451</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>496</v>
+        <v>513</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7236,7 +7299,7 @@
         <v>380</v>
       </c>
       <c r="D9" s="7">
-        <v>517345</v>
+        <v>516561</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7251,7 +7314,7 @@
         <v>705</v>
       </c>
       <c r="I9" s="7">
-        <v>545505</v>
+        <v>506744</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7266,7 +7329,7 @@
         <v>1085</v>
       </c>
       <c r="N9" s="7">
-        <v>1062850</v>
+        <v>1023305</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7289,46 +7352,46 @@
         <v>28</v>
       </c>
       <c r="D10" s="7">
-        <v>20483</v>
+        <v>19492</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="H10" s="7">
         <v>104</v>
       </c>
       <c r="I10" s="7">
-        <v>60150</v>
+        <v>55629</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>258</v>
+        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="M10" s="7">
         <v>132</v>
       </c>
       <c r="N10" s="7">
-        <v>80632</v>
+        <v>75121</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>502</v>
+        <v>324</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>503</v>
+        <v>519</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>504</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7340,46 +7403,46 @@
         <v>332</v>
       </c>
       <c r="D11" s="7">
-        <v>301757</v>
+        <v>296558</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="H11" s="7">
         <v>431</v>
       </c>
       <c r="I11" s="7">
-        <v>312537</v>
+        <v>292947</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>268</v>
+        <v>153</v>
       </c>
       <c r="M11" s="7">
         <v>763</v>
       </c>
       <c r="N11" s="7">
-        <v>614296</v>
+        <v>589505</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>510</v>
+        <v>334</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>511</v>
+        <v>176</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7391,7 +7454,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7406,7 +7469,7 @@
         <v>535</v>
       </c>
       <c r="I12" s="7">
-        <v>372687</v>
+        <v>348576</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7421,7 +7484,7 @@
         <v>895</v>
       </c>
       <c r="N12" s="7">
-        <v>694928</v>
+        <v>664626</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7444,46 +7507,46 @@
         <v>39</v>
       </c>
       <c r="D13" s="7">
-        <v>30792</v>
+        <v>28847</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>327</v>
+        <v>528</v>
       </c>
       <c r="H13" s="7">
         <v>188</v>
       </c>
       <c r="I13" s="7">
-        <v>94593</v>
+        <v>88008</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="M13" s="7">
         <v>227</v>
       </c>
       <c r="N13" s="7">
-        <v>125384</v>
+        <v>116856</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>520</v>
+        <v>534</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7495,46 +7558,46 @@
         <v>253</v>
       </c>
       <c r="D14" s="7">
-        <v>291448</v>
+        <v>283710</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>521</v>
+        <v>535</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>335</v>
+        <v>536</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="H14" s="7">
         <v>410</v>
       </c>
       <c r="I14" s="7">
-        <v>333529</v>
+        <v>387304</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="M14" s="7">
         <v>663</v>
       </c>
       <c r="N14" s="7">
-        <v>624978</v>
+        <v>671013</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7546,7 +7609,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7561,7 +7624,7 @@
         <v>598</v>
       </c>
       <c r="I15" s="7">
-        <v>428122</v>
+        <v>475312</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7576,7 +7639,7 @@
         <v>890</v>
       </c>
       <c r="N15" s="7">
-        <v>750362</v>
+        <v>787869</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7599,46 +7662,46 @@
         <v>19</v>
       </c>
       <c r="D16" s="7">
-        <v>10768</v>
+        <v>9727</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="H16" s="7">
         <v>106</v>
       </c>
       <c r="I16" s="7">
-        <v>42447</v>
+        <v>38627</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
       <c r="M16" s="7">
         <v>125</v>
       </c>
       <c r="N16" s="7">
-        <v>53215</v>
+        <v>48354</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7650,46 +7713,46 @@
         <v>260</v>
       </c>
       <c r="D17" s="7">
-        <v>185980</v>
+        <v>169015</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="H17" s="7">
         <v>384</v>
       </c>
       <c r="I17" s="7">
-        <v>188572</v>
+        <v>169214</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="M17" s="7">
         <v>644</v>
       </c>
       <c r="N17" s="7">
-        <v>374552</v>
+        <v>338229</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7701,7 +7764,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7716,7 +7779,7 @@
         <v>490</v>
       </c>
       <c r="I18" s="7">
-        <v>231019</v>
+        <v>207841</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7731,7 +7794,7 @@
         <v>769</v>
       </c>
       <c r="N18" s="7">
-        <v>427767</v>
+        <v>386583</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7754,46 +7817,46 @@
         <v>43</v>
       </c>
       <c r="D19" s="7">
-        <v>24326</v>
+        <v>23172</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>325</v>
+        <v>562</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>547</v>
+        <v>563</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
       <c r="H19" s="7">
         <v>112</v>
       </c>
       <c r="I19" s="7">
-        <v>51616</v>
+        <v>48038</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>549</v>
+        <v>565</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>550</v>
+        <v>566</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>551</v>
+        <v>567</v>
       </c>
       <c r="M19" s="7">
         <v>155</v>
       </c>
       <c r="N19" s="7">
-        <v>75942</v>
+        <v>71210</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>552</v>
+        <v>568</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>553</v>
+        <v>569</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>554</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7805,46 +7868,46 @@
         <v>328</v>
       </c>
       <c r="D20" s="7">
-        <v>252897</v>
+        <v>246464</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>334</v>
+        <v>570</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>555</v>
+        <v>571</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>556</v>
+        <v>572</v>
       </c>
       <c r="H20" s="7">
         <v>347</v>
       </c>
       <c r="I20" s="7">
-        <v>223289</v>
+        <v>208349</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>557</v>
+        <v>573</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>558</v>
+        <v>574</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>559</v>
+        <v>575</v>
       </c>
       <c r="M20" s="7">
         <v>675</v>
       </c>
       <c r="N20" s="7">
-        <v>476185</v>
+        <v>454813</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>560</v>
+        <v>576</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>561</v>
+        <v>282</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>562</v>
+        <v>577</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7856,7 +7919,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7871,7 +7934,7 @@
         <v>459</v>
       </c>
       <c r="I21" s="7">
-        <v>274905</v>
+        <v>256387</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7886,7 +7949,7 @@
         <v>830</v>
       </c>
       <c r="N21" s="7">
-        <v>552127</v>
+        <v>526023</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7909,46 +7972,46 @@
         <v>48</v>
       </c>
       <c r="D22" s="7">
-        <v>43497</v>
+        <v>41072</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>563</v>
+        <v>578</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>565</v>
+        <v>398</v>
       </c>
       <c r="H22" s="7">
         <v>171</v>
       </c>
       <c r="I22" s="7">
-        <v>219710</v>
+        <v>304615</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>566</v>
+        <v>580</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>568</v>
+        <v>582</v>
       </c>
       <c r="M22" s="7">
         <v>219</v>
       </c>
       <c r="N22" s="7">
-        <v>263206</v>
+        <v>345687</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>569</v>
+        <v>583</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>570</v>
+        <v>584</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7960,46 +8023,46 @@
         <v>545</v>
       </c>
       <c r="D23" s="7">
-        <v>577995</v>
+        <v>577154</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>572</v>
+        <v>586</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>573</v>
+        <v>406</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="H23" s="7">
         <v>782</v>
       </c>
       <c r="I23" s="7">
-        <v>580712</v>
+        <v>541110</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="M23" s="7">
         <v>1327</v>
       </c>
       <c r="N23" s="7">
-        <v>1158708</v>
+        <v>1118264</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>579</v>
+        <v>592</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8011,7 +8074,7 @@
         <v>593</v>
       </c>
       <c r="D24" s="7">
-        <v>621492</v>
+        <v>618226</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8026,7 +8089,7 @@
         <v>953</v>
       </c>
       <c r="I24" s="7">
-        <v>800422</v>
+        <v>845725</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8041,7 +8104,7 @@
         <v>1546</v>
       </c>
       <c r="N24" s="7">
-        <v>1421914</v>
+        <v>1463951</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8064,46 +8127,46 @@
         <v>32</v>
       </c>
       <c r="D25" s="7">
-        <v>26102</v>
+        <v>22121</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>217</v>
+        <v>596</v>
       </c>
       <c r="H25" s="7">
         <v>153</v>
       </c>
       <c r="I25" s="7">
-        <v>111643</v>
+        <v>92844</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>584</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="M25" s="7">
         <v>185</v>
       </c>
       <c r="N25" s="7">
-        <v>137746</v>
+        <v>114965</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>514</v>
+        <v>600</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>513</v>
+        <v>601</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8115,46 +8178,46 @@
         <v>730</v>
       </c>
       <c r="D26" s="7">
-        <v>833326</v>
+        <v>906599</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>225</v>
+        <v>603</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>588</v>
+        <v>604</v>
       </c>
       <c r="H26" s="7">
         <v>908</v>
       </c>
       <c r="I26" s="7">
-        <v>754029</v>
+        <v>622548</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>589</v>
+        <v>605</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="M26" s="7">
         <v>1638</v>
       </c>
       <c r="N26" s="7">
-        <v>1587354</v>
+        <v>1529147</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>592</v>
+        <v>607</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>521</v>
+        <v>608</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>522</v>
+        <v>609</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8166,7 +8229,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8181,7 +8244,7 @@
         <v>1061</v>
       </c>
       <c r="I27" s="7">
-        <v>865672</v>
+        <v>715392</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8196,7 +8259,7 @@
         <v>1823</v>
       </c>
       <c r="N27" s="7">
-        <v>1725100</v>
+        <v>1644112</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8219,46 +8282,46 @@
         <v>240</v>
       </c>
       <c r="D28" s="7">
-        <v>185555</v>
+        <v>173564</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>593</v>
+        <v>610</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>595</v>
+        <v>612</v>
       </c>
       <c r="H28" s="7">
         <v>958</v>
       </c>
       <c r="I28" s="7">
-        <v>653290</v>
+        <v>697191</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>596</v>
+        <v>613</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>597</v>
+        <v>614</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
       <c r="M28" s="7">
         <v>1198</v>
       </c>
       <c r="N28" s="7">
-        <v>838845</v>
+        <v>870755</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>600</v>
+        <v>17</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8270,46 +8333,46 @@
         <v>3128</v>
       </c>
       <c r="D29" s="7">
-        <v>3191459</v>
+        <v>3278370</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
       <c r="H29" s="7">
         <v>4381</v>
       </c>
       <c r="I29" s="7">
-        <v>3136444</v>
+        <v>2948420</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>607</v>
+        <v>623</v>
       </c>
       <c r="M29" s="7">
         <v>7509</v>
       </c>
       <c r="N29" s="7">
-        <v>6327903</v>
+        <v>6226791</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>609</v>
+        <v>625</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>610</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8321,7 +8384,7 @@
         <v>3368</v>
       </c>
       <c r="D30" s="7">
-        <v>3377014</v>
+        <v>3451934</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8336,7 +8399,7 @@
         <v>5339</v>
       </c>
       <c r="I30" s="7">
-        <v>3789734</v>
+        <v>3645611</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8351,7 +8414,7 @@
         <v>8707</v>
       </c>
       <c r="N30" s="7">
-        <v>7166748</v>
+        <v>7097546</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
